--- a/dev/mapping_overview.xlsx
+++ b/dev/mapping_overview.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10427" uniqueCount="2435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10435" uniqueCount="2438">
   <si>
     <t>Key</t>
   </si>
@@ -5989,10 +5989,13 @@
     <t>ocean liming</t>
   </si>
   <si>
-    <t>bioenergy, with CCS</t>
-  </si>
-  <si>
-    <t>biomass industrial emissions with CCS</t>
+    <t>biomass power generation, with CCS</t>
+  </si>
+  <si>
+    <t>synthetic fuels, with CCS</t>
+  </si>
+  <si>
+    <t>biofuels, with CCS</t>
   </si>
   <si>
     <t>Emi|CO2|CDR|+|DACCS</t>
@@ -6058,10 +6061,16 @@
     <t>Emi|CO2|CDR|+|BECCS</t>
   </si>
   <si>
-    <t>Carbon Capture|Energy</t>
+    <t>Carbon Capture|Energy|Supply|Electricity|Biomass</t>
   </si>
   <si>
     <t>Emi|CO2|CDR|+|Synthetic Fuels CCS</t>
+  </si>
+  <si>
+    <t>Carbon Capture|Energy|Supply|Hydrogen|Biomass</t>
+  </si>
+  <si>
+    <t>Carbon Capture|Energy|Supply|Liquids|Biomass</t>
   </si>
   <si>
     <t>sugar</t>
@@ -13877,7 +13886,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13905,7 +13914,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="D2" t="s">
         <v>330</v>
@@ -13919,7 +13928,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="D3" t="s">
         <v>330</v>
@@ -13933,7 +13942,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="D4" t="s">
         <v>330</v>
@@ -13947,7 +13956,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="D5" t="s">
         <v>330</v>
@@ -13961,7 +13970,7 @@
         <v>1290</v>
       </c>
       <c r="C6" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="D6" t="s">
         <v>330</v>
@@ -13975,7 +13984,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="D7" t="s">
         <v>330</v>
@@ -13989,7 +13998,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="D8" t="s">
         <v>330</v>
@@ -14003,7 +14012,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D9" t="s">
         <v>331</v>
@@ -14129,7 +14138,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="D18" t="s">
         <v>331</v>
@@ -14143,7 +14152,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D19" t="s">
         <v>331</v>
@@ -14157,7 +14166,7 @@
         <v>1290</v>
       </c>
       <c r="C20" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D20" t="s">
         <v>331</v>
@@ -14171,7 +14180,7 @@
         <v>1290</v>
       </c>
       <c r="C21" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D21" t="s">
         <v>331</v>
@@ -14185,7 +14194,7 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D22" t="s">
         <v>331</v>
@@ -14199,7 +14208,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D23" t="s">
         <v>331</v>
@@ -14213,7 +14222,7 @@
         <v>1290</v>
       </c>
       <c r="C24" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D24" t="s">
         <v>330</v>
@@ -14227,7 +14236,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D25" t="s">
         <v>330</v>
@@ -14241,7 +14250,7 @@
         <v>1290</v>
       </c>
       <c r="C26" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D26" t="s">
         <v>331</v>
@@ -14255,7 +14264,7 @@
         <v>1290</v>
       </c>
       <c r="C27" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D27" t="s">
         <v>331</v>
@@ -14269,7 +14278,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D28" t="s">
         <v>331</v>
@@ -14283,7 +14292,7 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D29" t="s">
         <v>330</v>
@@ -14297,7 +14306,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D30" t="s">
         <v>330</v>
@@ -14367,7 +14376,7 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D35" t="s">
         <v>330</v>
@@ -14381,7 +14390,7 @@
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D36" t="s">
         <v>330</v>
@@ -14395,7 +14404,7 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D37" t="s">
         <v>330</v>
@@ -14409,7 +14418,7 @@
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D38" t="s">
         <v>330</v>
@@ -14423,7 +14432,7 @@
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D39" t="s">
         <v>330</v>
@@ -14437,7 +14446,7 @@
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D40" t="s">
         <v>330</v>
@@ -14451,9 +14460,37 @@
         <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D42" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D43" t="s">
         <v>330</v>
       </c>
     </row>
@@ -14486,296 +14523,296 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D2" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D3" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D4" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D5" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D6" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D7" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D8" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="D9" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="D10" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="D11" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="D12" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="D13" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="D14" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="D15" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="D16" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="D17" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
       <c r="D18" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="D19" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
       <c r="D20" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="D21" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>2036</v>
+        <v>2039</v>
       </c>
       <c r="D22" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
     </row>
   </sheetData>
@@ -14807,13 +14844,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="D2" t="s">
         <v>330</v>
@@ -14821,13 +14858,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="D3" t="s">
         <v>330</v>
@@ -14835,13 +14872,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>2054</v>
+        <v>2057</v>
       </c>
       <c r="D4" t="s">
         <v>330</v>
@@ -14849,13 +14886,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="D5" t="s">
         <v>330</v>
@@ -14863,13 +14900,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>2056</v>
+        <v>2059</v>
       </c>
       <c r="D6" t="s">
         <v>330</v>
@@ -14877,13 +14914,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="D7" t="s">
         <v>331</v>
@@ -14891,13 +14928,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="D8" t="s">
         <v>331</v>
@@ -14905,7 +14942,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -14919,7 +14956,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -14933,7 +14970,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -14947,13 +14984,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="D12" t="s">
         <v>330</v>
@@ -14961,7 +14998,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -14975,13 +15012,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="D14" t="s">
         <v>330</v>
@@ -14989,7 +15026,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
@@ -15003,13 +15040,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>2045</v>
+        <v>2048</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="D16" t="s">
         <v>330</v>
@@ -15017,13 +15054,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>2045</v>
+        <v>2048</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="D17" t="s">
         <v>330</v>
@@ -15031,13 +15068,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>2045</v>
+        <v>2048</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>2060</v>
+        <v>2063</v>
       </c>
       <c r="D18" t="s">
         <v>330</v>
@@ -15045,13 +15082,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>2045</v>
+        <v>2048</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="D19" t="s">
         <v>330</v>
@@ -15059,13 +15096,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>2062</v>
+        <v>2065</v>
       </c>
       <c r="D20" t="s">
         <v>331</v>
@@ -15073,13 +15110,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>2062</v>
+        <v>2065</v>
       </c>
       <c r="D21" t="s">
         <v>331</v>
@@ -15087,7 +15124,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -15101,7 +15138,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -15115,13 +15152,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>2047</v>
+        <v>2050</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>2063</v>
+        <v>2066</v>
       </c>
       <c r="D24" t="s">
         <v>330</v>
@@ -15129,7 +15166,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>2048</v>
+        <v>2051</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
@@ -15143,13 +15180,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>2064</v>
+        <v>2067</v>
       </c>
       <c r="D26" t="s">
         <v>330</v>
@@ -15157,13 +15194,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>2064</v>
+        <v>2067</v>
       </c>
       <c r="D27" t="s">
         <v>330</v>
@@ -15171,13 +15208,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>2065</v>
+        <v>2068</v>
       </c>
       <c r="D28" t="s">
         <v>330</v>
@@ -15185,13 +15222,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="D29" t="s">
         <v>330</v>
@@ -15199,13 +15236,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="D30" t="s">
         <v>331</v>
@@ -15213,13 +15250,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="D31" t="s">
         <v>331</v>
@@ -15227,7 +15264,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
@@ -15241,7 +15278,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -15255,13 +15292,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>2051</v>
+        <v>2054</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="D34" t="s">
         <v>330</v>
@@ -15269,13 +15306,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>2051</v>
+        <v>2054</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="D35" t="s">
         <v>330</v>
@@ -15283,13 +15320,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>2051</v>
+        <v>2054</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>2069</v>
+        <v>2072</v>
       </c>
       <c r="D36" t="s">
         <v>330</v>
@@ -15297,7 +15334,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>2052</v>
+        <v>2055</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
@@ -15311,7 +15348,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>2052</v>
+        <v>2055</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -15325,7 +15362,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>2052</v>
+        <v>2055</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -15366,7 +15403,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -15380,7 +15417,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -15394,7 +15431,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -15408,7 +15445,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -15422,7 +15459,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -15436,7 +15473,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -15450,7 +15487,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -15464,7 +15501,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -15478,7 +15515,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -15492,7 +15529,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -15506,7 +15543,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -15520,7 +15557,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -15534,7 +15571,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>2072</v>
+        <v>2075</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -15548,7 +15585,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>2072</v>
+        <v>2075</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -15562,7 +15599,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>2072</v>
+        <v>2075</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -15576,7 +15613,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>2072</v>
+        <v>2075</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -15590,7 +15627,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>2072</v>
+        <v>2075</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -15604,7 +15641,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>2072</v>
+        <v>2075</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -15618,7 +15655,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -15632,7 +15669,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -15646,7 +15683,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -15660,7 +15697,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -15674,7 +15711,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>2075</v>
+        <v>2078</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -15688,7 +15725,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>2075</v>
+        <v>2078</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -15702,7 +15739,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -15716,7 +15753,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
@@ -15730,7 +15767,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -15744,7 +15781,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -15758,7 +15795,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -15772,7 +15809,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -15786,7 +15823,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -15800,7 +15837,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
@@ -15814,7 +15851,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -15828,7 +15865,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -15842,7 +15879,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -15856,7 +15893,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -15870,7 +15907,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
@@ -15884,7 +15921,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
@@ -15898,7 +15935,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
@@ -15912,7 +15949,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -15926,7 +15963,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
@@ -15940,7 +15977,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
@@ -15954,7 +15991,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="B44" t="s">
         <v>23</v>
@@ -15968,7 +16005,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="B45" t="s">
         <v>24</v>
@@ -15982,7 +16019,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
@@ -15996,7 +16033,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
@@ -16010,7 +16047,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
@@ -16024,7 +16061,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
@@ -16038,7 +16075,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
@@ -16052,7 +16089,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
@@ -16066,7 +16103,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>2081</v>
+        <v>2084</v>
       </c>
       <c r="B52" t="s">
         <v>23</v>
@@ -16080,7 +16117,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>2081</v>
+        <v>2084</v>
       </c>
       <c r="B53" t="s">
         <v>24</v>
@@ -16094,7 +16131,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>2081</v>
+        <v>2084</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
@@ -16108,7 +16145,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>2081</v>
+        <v>2084</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
@@ -16122,7 +16159,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>2081</v>
+        <v>2084</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
@@ -16136,7 +16173,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>2081</v>
+        <v>2084</v>
       </c>
       <c r="B57" t="s">
         <v>22</v>
@@ -16150,7 +16187,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>2082</v>
+        <v>2085</v>
       </c>
       <c r="B58" t="s">
         <v>22</v>
@@ -16164,13 +16201,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="B59" t="s">
         <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>2096</v>
+        <v>2099</v>
       </c>
       <c r="D59" t="s">
         <v>330</v>
@@ -16178,13 +16215,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>2096</v>
+        <v>2099</v>
       </c>
       <c r="D60" t="s">
         <v>330</v>
@@ -16192,7 +16229,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
@@ -16206,13 +16243,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>2084</v>
+        <v>2087</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>2097</v>
+        <v>2100</v>
       </c>
       <c r="D62" t="s">
         <v>330</v>
@@ -16220,13 +16257,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>2084</v>
+        <v>2087</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>2097</v>
+        <v>2100</v>
       </c>
       <c r="D63" t="s">
         <v>330</v>
@@ -16234,7 +16271,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>2084</v>
+        <v>2087</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
@@ -16248,13 +16285,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>2098</v>
+        <v>2101</v>
       </c>
       <c r="D65" t="s">
         <v>330</v>
@@ -16262,13 +16299,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="B66" t="s">
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>2098</v>
+        <v>2101</v>
       </c>
       <c r="D66" t="s">
         <v>330</v>
@@ -16276,7 +16313,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -16290,13 +16327,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="B68" t="s">
         <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>2099</v>
+        <v>2102</v>
       </c>
       <c r="D68" t="s">
         <v>330</v>
@@ -16304,13 +16341,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="B69" t="s">
         <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>2099</v>
+        <v>2102</v>
       </c>
       <c r="D69" t="s">
         <v>330</v>
@@ -16318,7 +16355,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -16332,7 +16369,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>2087</v>
+        <v>2090</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
@@ -16346,13 +16383,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>2088</v>
+        <v>2091</v>
       </c>
       <c r="B72" t="s">
         <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>2100</v>
+        <v>2103</v>
       </c>
       <c r="D72" t="s">
         <v>330</v>
@@ -16360,13 +16397,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>2088</v>
+        <v>2091</v>
       </c>
       <c r="B73" t="s">
         <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>2100</v>
+        <v>2103</v>
       </c>
       <c r="D73" t="s">
         <v>330</v>
@@ -16374,13 +16411,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>2089</v>
+        <v>2092</v>
       </c>
       <c r="B74" t="s">
         <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>2101</v>
+        <v>2104</v>
       </c>
       <c r="D74" t="s">
         <v>330</v>
@@ -16388,13 +16425,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>2089</v>
+        <v>2092</v>
       </c>
       <c r="B75" t="s">
         <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>2101</v>
+        <v>2104</v>
       </c>
       <c r="D75" t="s">
         <v>330</v>
@@ -16402,7 +16439,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>2090</v>
+        <v>2093</v>
       </c>
       <c r="B76" t="s">
         <v>23</v>
@@ -16416,7 +16453,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>2090</v>
+        <v>2093</v>
       </c>
       <c r="B77" t="s">
         <v>24</v>
@@ -16430,7 +16467,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>2091</v>
+        <v>2094</v>
       </c>
       <c r="B78" t="s">
         <v>23</v>
@@ -16444,7 +16481,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>2091</v>
+        <v>2094</v>
       </c>
       <c r="B79" t="s">
         <v>24</v>
@@ -16458,13 +16495,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>2091</v>
+        <v>2094</v>
       </c>
       <c r="B80" t="s">
         <v>1290</v>
       </c>
       <c r="C80" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D80" t="s">
         <v>330</v>
@@ -16472,7 +16509,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>2092</v>
+        <v>2095</v>
       </c>
       <c r="B81" t="s">
         <v>23</v>
@@ -16486,7 +16523,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>2092</v>
+        <v>2095</v>
       </c>
       <c r="B82" t="s">
         <v>24</v>
@@ -16500,13 +16537,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>2092</v>
+        <v>2095</v>
       </c>
       <c r="B83" t="s">
         <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="D83" t="s">
         <v>330</v>
@@ -16514,7 +16551,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
       <c r="B84" t="s">
         <v>23</v>
@@ -16528,7 +16565,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
       <c r="B85" t="s">
         <v>24</v>
@@ -16542,13 +16579,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
       <c r="B86" t="s">
         <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D86" t="s">
         <v>330</v>
@@ -16556,13 +16593,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
       <c r="B87" t="s">
         <v>1290</v>
       </c>
       <c r="C87" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D87" t="s">
         <v>330</v>
@@ -16570,13 +16607,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
       <c r="B88" t="s">
         <v>1290</v>
       </c>
       <c r="C88" t="s">
-        <v>2102</v>
+        <v>2105</v>
       </c>
       <c r="D88" t="s">
         <v>330</v>
@@ -16584,13 +16621,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
       <c r="B89" t="s">
         <v>1290</v>
       </c>
       <c r="C89" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D89" t="s">
         <v>330</v>
@@ -16598,13 +16635,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
       <c r="B90" t="s">
         <v>1290</v>
       </c>
       <c r="C90" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D90" t="s">
         <v>330</v>
@@ -16612,7 +16649,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>2094</v>
+        <v>2097</v>
       </c>
       <c r="B91" t="s">
         <v>23</v>
@@ -16626,7 +16663,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>2094</v>
+        <v>2097</v>
       </c>
       <c r="B92" t="s">
         <v>24</v>
@@ -16640,7 +16677,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>2095</v>
+        <v>2098</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
@@ -16654,7 +16691,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>2095</v>
+        <v>2098</v>
       </c>
       <c r="B94" t="s">
         <v>24</v>
@@ -16695,13 +16732,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>2217</v>
+        <v>2220</v>
       </c>
       <c r="D2" t="s">
         <v>330</v>
@@ -16709,13 +16746,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="D3" t="s">
         <v>330</v>
@@ -16723,13 +16760,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="D4" t="s">
         <v>330</v>
@@ -16737,13 +16774,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>2219</v>
+        <v>2222</v>
       </c>
       <c r="D5" t="s">
         <v>330</v>
@@ -16751,13 +16788,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>2220</v>
+        <v>2223</v>
       </c>
       <c r="D6" t="s">
         <v>330</v>
@@ -16765,13 +16802,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="B7" t="s">
         <v>1290</v>
       </c>
       <c r="C7" t="s">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="D7" t="s">
         <v>330</v>
@@ -16779,13 +16816,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>2104</v>
+        <v>2107</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="D8" t="s">
         <v>330</v>
@@ -16793,13 +16830,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>2105</v>
+        <v>2108</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>2223</v>
+        <v>2226</v>
       </c>
       <c r="D9" t="s">
         <v>330</v>
@@ -16807,13 +16844,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>2105</v>
+        <v>2108</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="D10" t="s">
         <v>330</v>
@@ -16821,13 +16858,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>2105</v>
+        <v>2108</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="D11" t="s">
         <v>330</v>
@@ -16835,13 +16872,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>2105</v>
+        <v>2108</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="D12" t="s">
         <v>330</v>
@@ -16849,13 +16886,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="D13" t="s">
         <v>1739</v>
@@ -16863,13 +16900,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="D14" t="s">
         <v>1739</v>
@@ -16877,13 +16914,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>2227</v>
+        <v>2230</v>
       </c>
       <c r="D15" t="s">
         <v>330</v>
@@ -16891,13 +16928,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>2228</v>
+        <v>2231</v>
       </c>
       <c r="D16" t="s">
         <v>330</v>
@@ -16905,13 +16942,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>2228</v>
+        <v>2231</v>
       </c>
       <c r="D17" t="s">
         <v>330</v>
@@ -16919,13 +16956,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>2229</v>
+        <v>2232</v>
       </c>
       <c r="D18" t="s">
         <v>330</v>
@@ -16933,13 +16970,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>2230</v>
+        <v>2233</v>
       </c>
       <c r="D19" t="s">
         <v>330</v>
@@ -16947,13 +16984,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="B20" t="s">
         <v>1290</v>
       </c>
       <c r="C20" t="s">
-        <v>2231</v>
+        <v>2234</v>
       </c>
       <c r="D20" t="s">
         <v>330</v>
@@ -16961,13 +16998,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="D21" t="s">
         <v>330</v>
@@ -16975,13 +17012,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>2233</v>
+        <v>2236</v>
       </c>
       <c r="D22" t="s">
         <v>330</v>
@@ -16989,13 +17026,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>2234</v>
+        <v>2237</v>
       </c>
       <c r="D23" t="s">
         <v>330</v>
@@ -17003,13 +17040,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>2234</v>
+        <v>2237</v>
       </c>
       <c r="D24" t="s">
         <v>330</v>
@@ -17017,13 +17054,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>2235</v>
+        <v>2238</v>
       </c>
       <c r="D25" t="s">
         <v>330</v>
@@ -17031,13 +17068,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>2236</v>
+        <v>2239</v>
       </c>
       <c r="D26" t="s">
         <v>330</v>
@@ -17045,13 +17082,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="B27" t="s">
         <v>1290</v>
       </c>
       <c r="C27" t="s">
-        <v>2237</v>
+        <v>2240</v>
       </c>
       <c r="D27" t="s">
         <v>330</v>
@@ -17059,13 +17096,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>2238</v>
+        <v>2241</v>
       </c>
       <c r="D28" t="s">
         <v>1739</v>
@@ -17073,13 +17110,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="D29" t="s">
         <v>1739</v>
@@ -17087,13 +17124,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="D30" t="s">
         <v>1739</v>
@@ -17101,13 +17138,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>2240</v>
+        <v>2243</v>
       </c>
       <c r="D31" t="s">
         <v>330</v>
@@ -17115,13 +17152,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>2241</v>
+        <v>2244</v>
       </c>
       <c r="D32" t="s">
         <v>330</v>
@@ -17129,13 +17166,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>2242</v>
+        <v>2245</v>
       </c>
       <c r="D33" t="s">
         <v>330</v>
@@ -17143,13 +17180,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>2242</v>
+        <v>2245</v>
       </c>
       <c r="D34" t="s">
         <v>330</v>
@@ -17157,13 +17194,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>2243</v>
+        <v>2246</v>
       </c>
       <c r="D35" t="s">
         <v>330</v>
@@ -17171,13 +17208,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>2244</v>
+        <v>2247</v>
       </c>
       <c r="D36" t="s">
         <v>330</v>
@@ -17185,13 +17222,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="B37" t="s">
         <v>1290</v>
       </c>
       <c r="C37" t="s">
-        <v>2245</v>
+        <v>2248</v>
       </c>
       <c r="D37" t="s">
         <v>330</v>
@@ -17199,13 +17236,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>2238</v>
+        <v>2241</v>
       </c>
       <c r="D38" t="s">
         <v>1739</v>
@@ -17213,13 +17250,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="D39" t="s">
         <v>1739</v>
@@ -17227,13 +17264,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="D40" t="s">
         <v>1739</v>
@@ -17241,13 +17278,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="D41" t="s">
         <v>330</v>
@@ -17255,13 +17292,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>2247</v>
+        <v>2250</v>
       </c>
       <c r="D42" t="s">
         <v>330</v>
@@ -17269,13 +17306,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="B43" t="s">
         <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>2247</v>
+        <v>2250</v>
       </c>
       <c r="D43" t="s">
         <v>330</v>
@@ -17283,13 +17320,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="B44" t="s">
         <v>1290</v>
       </c>
       <c r="C44" t="s">
-        <v>2248</v>
+        <v>2251</v>
       </c>
       <c r="D44" t="s">
         <v>330</v>
@@ -17297,13 +17334,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>2249</v>
+        <v>2252</v>
       </c>
       <c r="D45" t="s">
         <v>1739</v>
@@ -17311,13 +17348,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>2250</v>
+        <v>2253</v>
       </c>
       <c r="D46" t="s">
         <v>330</v>
@@ -17325,13 +17362,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>2251</v>
+        <v>2254</v>
       </c>
       <c r="D47" t="s">
         <v>330</v>
@@ -17339,13 +17376,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>2251</v>
+        <v>2254</v>
       </c>
       <c r="D48" t="s">
         <v>330</v>
@@ -17353,13 +17390,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>2252</v>
+        <v>2255</v>
       </c>
       <c r="D49" t="s">
         <v>330</v>
@@ -17367,13 +17404,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="B50" t="s">
         <v>1290</v>
       </c>
       <c r="C50" t="s">
-        <v>2253</v>
+        <v>2256</v>
       </c>
       <c r="D50" t="s">
         <v>330</v>
@@ -17381,13 +17418,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>2254</v>
+        <v>2257</v>
       </c>
       <c r="D51" t="s">
         <v>1739</v>
@@ -17395,13 +17432,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>2255</v>
+        <v>2258</v>
       </c>
       <c r="D52" t="s">
         <v>330</v>
@@ -17409,13 +17446,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="B53" t="s">
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>2256</v>
+        <v>2259</v>
       </c>
       <c r="D53" t="s">
         <v>330</v>
@@ -17423,13 +17460,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="B54" t="s">
         <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>2256</v>
+        <v>2259</v>
       </c>
       <c r="D54" t="s">
         <v>330</v>
@@ -17437,13 +17474,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="B55" t="s">
         <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>2257</v>
+        <v>2260</v>
       </c>
       <c r="D55" t="s">
         <v>330</v>
@@ -17451,13 +17488,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="B56" t="s">
         <v>1290</v>
       </c>
       <c r="C56" t="s">
-        <v>2258</v>
+        <v>2261</v>
       </c>
       <c r="D56" t="s">
         <v>330</v>
@@ -17465,13 +17502,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>2259</v>
+        <v>2262</v>
       </c>
       <c r="D57" t="s">
         <v>1739</v>
@@ -17479,13 +17516,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="B58" t="s">
         <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="D58" t="s">
         <v>330</v>
@@ -17493,13 +17530,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>2261</v>
+        <v>2264</v>
       </c>
       <c r="D59" t="s">
         <v>330</v>
@@ -17507,13 +17544,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="B60" t="s">
         <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>2247</v>
+        <v>2250</v>
       </c>
       <c r="D60" t="s">
         <v>330</v>
@@ -17521,13 +17558,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="B61" t="s">
         <v>24</v>
       </c>
       <c r="C61" t="s">
-        <v>2247</v>
+        <v>2250</v>
       </c>
       <c r="D61" t="s">
         <v>330</v>
@@ -17535,13 +17572,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="B62" t="s">
         <v>1290</v>
       </c>
       <c r="C62" t="s">
-        <v>2248</v>
+        <v>2251</v>
       </c>
       <c r="D62" t="s">
         <v>330</v>
@@ -17549,13 +17586,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>2262</v>
+        <v>2265</v>
       </c>
       <c r="D63" t="s">
         <v>1739</v>
@@ -17563,13 +17600,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="B64" t="s">
         <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>2263</v>
+        <v>2266</v>
       </c>
       <c r="D64" t="s">
         <v>330</v>
@@ -17577,13 +17614,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>2250</v>
+        <v>2253</v>
       </c>
       <c r="D65" t="s">
         <v>330</v>
@@ -17591,13 +17628,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>2251</v>
+        <v>2254</v>
       </c>
       <c r="D66" t="s">
         <v>330</v>
@@ -17605,13 +17642,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="B67" t="s">
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>2251</v>
+        <v>2254</v>
       </c>
       <c r="D67" t="s">
         <v>330</v>
@@ -17619,13 +17656,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="B68" t="s">
         <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>2264</v>
+        <v>2267</v>
       </c>
       <c r="D68" t="s">
         <v>330</v>
@@ -17633,13 +17670,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="B69" t="s">
         <v>1290</v>
       </c>
       <c r="C69" t="s">
-        <v>2253</v>
+        <v>2256</v>
       </c>
       <c r="D69" t="s">
         <v>330</v>
@@ -17647,13 +17684,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="B70" t="s">
         <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="D70" t="s">
         <v>1739</v>
@@ -17661,13 +17698,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>2254</v>
+        <v>2257</v>
       </c>
       <c r="D71" t="s">
         <v>1739</v>
@@ -17675,13 +17712,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="B72" t="s">
         <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>2266</v>
+        <v>2269</v>
       </c>
       <c r="D72" t="s">
         <v>330</v>
@@ -17689,13 +17726,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>2255</v>
+        <v>2258</v>
       </c>
       <c r="D73" t="s">
         <v>330</v>
@@ -17703,13 +17740,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="B74" t="s">
         <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>2256</v>
+        <v>2259</v>
       </c>
       <c r="D74" t="s">
         <v>330</v>
@@ -17717,13 +17754,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="B75" t="s">
         <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>2256</v>
+        <v>2259</v>
       </c>
       <c r="D75" t="s">
         <v>330</v>
@@ -17731,13 +17768,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="B76" t="s">
         <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>2267</v>
+        <v>2270</v>
       </c>
       <c r="D76" t="s">
         <v>330</v>
@@ -17745,13 +17782,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="B77" t="s">
         <v>1290</v>
       </c>
       <c r="C77" t="s">
-        <v>2258</v>
+        <v>2261</v>
       </c>
       <c r="D77" t="s">
         <v>330</v>
@@ -17759,13 +17796,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="B78" t="s">
         <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="D78" t="s">
         <v>1739</v>
@@ -17773,13 +17810,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>2259</v>
+        <v>2262</v>
       </c>
       <c r="D79" t="s">
         <v>1739</v>
@@ -17787,13 +17824,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="B80" t="s">
         <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="D80" t="s">
         <v>330</v>
@@ -17801,13 +17838,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="D81" t="s">
         <v>330</v>
@@ -17815,13 +17852,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="B82" t="s">
         <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="D82" t="s">
         <v>330</v>
@@ -17829,13 +17866,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="D83" t="s">
         <v>330</v>
@@ -17843,13 +17880,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="B84" t="s">
         <v>22</v>
       </c>
       <c r="C84" t="s">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="D84" t="s">
         <v>330</v>
@@ -17857,13 +17894,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="B85" t="s">
         <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="D85" t="s">
         <v>330</v>
@@ -17871,13 +17908,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="B86" t="s">
         <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>2274</v>
+        <v>2277</v>
       </c>
       <c r="D86" t="s">
         <v>1739</v>
@@ -17885,13 +17922,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="D87" t="s">
         <v>1739</v>
@@ -17899,13 +17936,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="B88" t="s">
         <v>22</v>
       </c>
       <c r="C88" t="s">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="D88" t="s">
         <v>1739</v>
@@ -17913,13 +17950,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="B89" t="s">
         <v>27</v>
       </c>
       <c r="C89" t="s">
-        <v>2277</v>
+        <v>2280</v>
       </c>
       <c r="D89" t="s">
         <v>330</v>
@@ -17927,13 +17964,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>2278</v>
+        <v>2281</v>
       </c>
       <c r="D90" t="s">
         <v>330</v>
@@ -17941,13 +17978,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="B91" t="s">
         <v>23</v>
       </c>
       <c r="C91" t="s">
-        <v>2279</v>
+        <v>2282</v>
       </c>
       <c r="D91" t="s">
         <v>330</v>
@@ -17955,13 +17992,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="B92" t="s">
         <v>24</v>
       </c>
       <c r="C92" t="s">
-        <v>2279</v>
+        <v>2282</v>
       </c>
       <c r="D92" t="s">
         <v>330</v>
@@ -17969,13 +18006,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="B93" t="s">
         <v>22</v>
       </c>
       <c r="C93" t="s">
-        <v>2280</v>
+        <v>2283</v>
       </c>
       <c r="D93" t="s">
         <v>330</v>
@@ -17983,13 +18020,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="B94" t="s">
         <v>25</v>
       </c>
       <c r="C94" t="s">
-        <v>2281</v>
+        <v>2284</v>
       </c>
       <c r="D94" t="s">
         <v>330</v>
@@ -17997,13 +18034,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="B95" t="s">
         <v>27</v>
       </c>
       <c r="C95" t="s">
-        <v>2282</v>
+        <v>2285</v>
       </c>
       <c r="D95" t="s">
         <v>1739</v>
@@ -18011,13 +18048,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="B96" t="s">
         <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>2283</v>
+        <v>2286</v>
       </c>
       <c r="D96" t="s">
         <v>1739</v>
@@ -18025,13 +18062,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="B97" t="s">
         <v>22</v>
       </c>
       <c r="C97" t="s">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="D97" t="s">
         <v>1739</v>
@@ -18039,13 +18076,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="B98" t="s">
         <v>22</v>
       </c>
       <c r="C98" t="s">
-        <v>2285</v>
+        <v>2288</v>
       </c>
       <c r="D98" t="s">
         <v>330</v>
@@ -18053,13 +18090,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="B99" t="s">
         <v>26</v>
       </c>
       <c r="C99" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="D99" t="s">
         <v>1739</v>
@@ -18067,13 +18104,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="B100" t="s">
         <v>22</v>
       </c>
       <c r="C100" t="s">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="D100" t="s">
         <v>1739</v>
@@ -18081,13 +18118,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
       <c r="B101" t="s">
         <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="D101" t="s">
         <v>330</v>
@@ -18095,13 +18132,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
       <c r="B102" t="s">
         <v>26</v>
       </c>
       <c r="C102" t="s">
-        <v>2283</v>
+        <v>2286</v>
       </c>
       <c r="D102" t="s">
         <v>1739</v>
@@ -18109,13 +18146,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
       <c r="B103" t="s">
         <v>22</v>
       </c>
       <c r="C103" t="s">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="D103" t="s">
         <v>1739</v>
@@ -18123,13 +18160,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>2132</v>
+        <v>2135</v>
       </c>
       <c r="B104" t="s">
         <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="D104" t="s">
         <v>330</v>
@@ -18137,13 +18174,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="B105" t="s">
         <v>27</v>
       </c>
       <c r="C105" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="D105" t="s">
         <v>1739</v>
@@ -18151,13 +18188,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>2134</v>
+        <v>2137</v>
       </c>
       <c r="B106" t="s">
         <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="D106" t="s">
         <v>330</v>
@@ -18165,13 +18202,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>2135</v>
+        <v>2138</v>
       </c>
       <c r="B107" t="s">
         <v>27</v>
       </c>
       <c r="C107" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="D107" t="s">
         <v>1739</v>
@@ -18179,13 +18216,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
       <c r="B108" t="s">
         <v>27</v>
       </c>
       <c r="C108" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="D108" t="s">
         <v>330</v>
@@ -18193,13 +18230,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
       <c r="B109" t="s">
         <v>26</v>
       </c>
       <c r="C109" t="s">
-        <v>2261</v>
+        <v>2264</v>
       </c>
       <c r="D109" t="s">
         <v>330</v>
@@ -18207,13 +18244,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
       <c r="B110" t="s">
         <v>23</v>
       </c>
       <c r="C110" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="D110" t="s">
         <v>330</v>
@@ -18221,13 +18258,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
       <c r="B111" t="s">
         <v>24</v>
       </c>
       <c r="C111" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="D111" t="s">
         <v>330</v>
@@ -18235,13 +18272,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
       <c r="B112" t="s">
         <v>22</v>
       </c>
       <c r="C112" t="s">
-        <v>2293</v>
+        <v>2296</v>
       </c>
       <c r="D112" t="s">
         <v>330</v>
@@ -18249,13 +18286,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
       <c r="B113" t="s">
         <v>22</v>
       </c>
       <c r="C113" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
       <c r="D113" t="s">
         <v>330</v>
@@ -18263,13 +18300,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
       <c r="B114" t="s">
         <v>25</v>
       </c>
       <c r="C114" t="s">
-        <v>2295</v>
+        <v>2298</v>
       </c>
       <c r="D114" t="s">
         <v>330</v>
@@ -18277,13 +18314,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
       <c r="B115" t="s">
         <v>1290</v>
       </c>
       <c r="C115" t="s">
-        <v>2296</v>
+        <v>2299</v>
       </c>
       <c r="D115" t="s">
         <v>330</v>
@@ -18291,13 +18328,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="B116" t="s">
         <v>26</v>
       </c>
       <c r="C116" t="s">
-        <v>2262</v>
+        <v>2265</v>
       </c>
       <c r="D116" t="s">
         <v>1739</v>
@@ -18305,13 +18342,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="B117" t="s">
         <v>23</v>
       </c>
       <c r="C117" t="s">
-        <v>2297</v>
+        <v>2300</v>
       </c>
       <c r="D117" t="s">
         <v>1739</v>
@@ -18319,13 +18356,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="B118" t="s">
         <v>24</v>
       </c>
       <c r="C118" t="s">
-        <v>2297</v>
+        <v>2300</v>
       </c>
       <c r="D118" t="s">
         <v>1739</v>
@@ -18333,13 +18370,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="B119" t="s">
         <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>2262</v>
+        <v>2265</v>
       </c>
       <c r="D119" t="s">
         <v>1739</v>
@@ -18347,13 +18384,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="B120" t="s">
         <v>1290</v>
       </c>
       <c r="C120" t="s">
-        <v>2298</v>
+        <v>2301</v>
       </c>
       <c r="D120" t="s">
         <v>1739</v>
@@ -18361,13 +18398,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>2138</v>
+        <v>2141</v>
       </c>
       <c r="B121" t="s">
         <v>22</v>
       </c>
       <c r="C121" t="s">
-        <v>2299</v>
+        <v>2302</v>
       </c>
       <c r="D121" t="s">
         <v>330</v>
@@ -18375,13 +18412,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>2139</v>
+        <v>2142</v>
       </c>
       <c r="B122" t="s">
         <v>22</v>
       </c>
       <c r="C122" t="s">
-        <v>2300</v>
+        <v>2303</v>
       </c>
       <c r="D122" t="s">
         <v>330</v>
@@ -18389,13 +18426,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>2140</v>
+        <v>2143</v>
       </c>
       <c r="B123" t="s">
         <v>22</v>
       </c>
       <c r="C123" t="s">
-        <v>2301</v>
+        <v>2304</v>
       </c>
       <c r="D123" t="s">
         <v>330</v>
@@ -18403,13 +18440,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>2141</v>
+        <v>2144</v>
       </c>
       <c r="B124" t="s">
         <v>22</v>
       </c>
       <c r="C124" t="s">
-        <v>2302</v>
+        <v>2305</v>
       </c>
       <c r="D124" t="s">
         <v>330</v>
@@ -18417,13 +18454,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>2142</v>
+        <v>2145</v>
       </c>
       <c r="B125" t="s">
         <v>22</v>
       </c>
       <c r="C125" t="s">
-        <v>2303</v>
+        <v>2306</v>
       </c>
       <c r="D125" t="s">
         <v>330</v>
@@ -18431,13 +18468,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>2143</v>
+        <v>2146</v>
       </c>
       <c r="B126" t="s">
         <v>1290</v>
       </c>
       <c r="C126" t="s">
-        <v>2304</v>
+        <v>2307</v>
       </c>
       <c r="D126" t="s">
         <v>330</v>
@@ -18445,13 +18482,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>2144</v>
+        <v>2147</v>
       </c>
       <c r="B127" t="s">
         <v>1290</v>
       </c>
       <c r="C127" t="s">
-        <v>2305</v>
+        <v>2308</v>
       </c>
       <c r="D127" t="s">
         <v>1739</v>
@@ -18459,13 +18496,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>2145</v>
+        <v>2148</v>
       </c>
       <c r="B128" t="s">
         <v>26</v>
       </c>
       <c r="C128" t="s">
-        <v>2306</v>
+        <v>2309</v>
       </c>
       <c r="D128" t="s">
         <v>330</v>
@@ -18473,13 +18510,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>2146</v>
+        <v>2149</v>
       </c>
       <c r="B129" t="s">
         <v>26</v>
       </c>
       <c r="C129" t="s">
-        <v>2307</v>
+        <v>2310</v>
       </c>
       <c r="D129" t="s">
         <v>1739</v>
@@ -18487,13 +18524,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="B130" t="s">
         <v>27</v>
       </c>
       <c r="C130" t="s">
-        <v>2308</v>
+        <v>2311</v>
       </c>
       <c r="D130" t="s">
         <v>330</v>
@@ -18501,13 +18538,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="B131" t="s">
         <v>26</v>
       </c>
       <c r="C131" t="s">
-        <v>2309</v>
+        <v>2312</v>
       </c>
       <c r="D131" t="s">
         <v>330</v>
@@ -18515,13 +18552,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="B132" t="s">
         <v>23</v>
       </c>
       <c r="C132" t="s">
-        <v>2310</v>
+        <v>2313</v>
       </c>
       <c r="D132" t="s">
         <v>330</v>
@@ -18529,13 +18566,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="B133" t="s">
         <v>24</v>
       </c>
       <c r="C133" t="s">
-        <v>2310</v>
+        <v>2313</v>
       </c>
       <c r="D133" t="s">
         <v>330</v>
@@ -18543,13 +18580,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="B134" t="s">
         <v>22</v>
       </c>
       <c r="C134" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="D134" t="s">
         <v>330</v>
@@ -18557,13 +18594,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="B135" t="s">
         <v>25</v>
       </c>
       <c r="C135" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="D135" t="s">
         <v>330</v>
@@ -18571,13 +18608,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>2148</v>
+        <v>2151</v>
       </c>
       <c r="B136" t="s">
         <v>26</v>
       </c>
       <c r="C136" t="s">
-        <v>2312</v>
+        <v>2315</v>
       </c>
       <c r="D136" t="s">
         <v>1739</v>
@@ -18585,13 +18622,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>2148</v>
+        <v>2151</v>
       </c>
       <c r="B137" t="s">
         <v>23</v>
       </c>
       <c r="C137" t="s">
-        <v>2313</v>
+        <v>2316</v>
       </c>
       <c r="D137" t="s">
         <v>1739</v>
@@ -18599,13 +18636,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>2148</v>
+        <v>2151</v>
       </c>
       <c r="B138" t="s">
         <v>24</v>
       </c>
       <c r="C138" t="s">
-        <v>2313</v>
+        <v>2316</v>
       </c>
       <c r="D138" t="s">
         <v>1739</v>
@@ -18613,13 +18650,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="B139" t="s">
         <v>27</v>
       </c>
       <c r="C139" t="s">
-        <v>2314</v>
+        <v>2317</v>
       </c>
       <c r="D139" t="s">
         <v>330</v>
@@ -18627,13 +18664,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="B140" t="s">
         <v>26</v>
       </c>
       <c r="C140" t="s">
-        <v>2315</v>
+        <v>2318</v>
       </c>
       <c r="D140" t="s">
         <v>330</v>
@@ -18641,13 +18678,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="B141" t="s">
         <v>23</v>
       </c>
       <c r="C141" t="s">
-        <v>2316</v>
+        <v>2319</v>
       </c>
       <c r="D141" t="s">
         <v>330</v>
@@ -18655,13 +18692,13 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="B142" t="s">
         <v>24</v>
       </c>
       <c r="C142" t="s">
-        <v>2316</v>
+        <v>2319</v>
       </c>
       <c r="D142" t="s">
         <v>330</v>
@@ -18669,13 +18706,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="B143" t="s">
         <v>22</v>
       </c>
       <c r="C143" t="s">
-        <v>2317</v>
+        <v>2320</v>
       </c>
       <c r="D143" t="s">
         <v>330</v>
@@ -18683,13 +18720,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="B144" t="s">
         <v>25</v>
       </c>
       <c r="C144" t="s">
-        <v>2317</v>
+        <v>2320</v>
       </c>
       <c r="D144" t="s">
         <v>330</v>
@@ -18697,13 +18734,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="B145" t="s">
         <v>26</v>
       </c>
       <c r="C145" t="s">
-        <v>2318</v>
+        <v>2321</v>
       </c>
       <c r="D145" t="s">
         <v>1739</v>
@@ -18711,13 +18748,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="B146" t="s">
         <v>23</v>
       </c>
       <c r="C146" t="s">
-        <v>2319</v>
+        <v>2322</v>
       </c>
       <c r="D146" t="s">
         <v>1739</v>
@@ -18725,13 +18762,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="B147" t="s">
         <v>24</v>
       </c>
       <c r="C147" t="s">
-        <v>2319</v>
+        <v>2322</v>
       </c>
       <c r="D147" t="s">
         <v>1739</v>
@@ -18739,13 +18776,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="B148" t="s">
         <v>27</v>
       </c>
       <c r="C148" t="s">
-        <v>2320</v>
+        <v>2323</v>
       </c>
       <c r="D148" t="s">
         <v>330</v>
@@ -18753,13 +18790,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="B149" t="s">
         <v>23</v>
       </c>
       <c r="C149" t="s">
-        <v>2321</v>
+        <v>2324</v>
       </c>
       <c r="D149" t="s">
         <v>330</v>
@@ -18767,13 +18804,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="B150" t="s">
         <v>24</v>
       </c>
       <c r="C150" t="s">
-        <v>2321</v>
+        <v>2324</v>
       </c>
       <c r="D150" t="s">
         <v>330</v>
@@ -18781,13 +18818,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="B151" t="s">
         <v>22</v>
       </c>
       <c r="C151" t="s">
-        <v>2322</v>
+        <v>2325</v>
       </c>
       <c r="D151" t="s">
         <v>330</v>
@@ -18795,13 +18832,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="B152" t="s">
         <v>25</v>
       </c>
       <c r="C152" t="s">
-        <v>2322</v>
+        <v>2325</v>
       </c>
       <c r="D152" t="s">
         <v>330</v>
@@ -18809,13 +18846,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="B153" t="s">
         <v>23</v>
       </c>
       <c r="C153" t="s">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="D153" t="s">
         <v>1739</v>
@@ -18823,13 +18860,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="B154" t="s">
         <v>24</v>
       </c>
       <c r="C154" t="s">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="D154" t="s">
         <v>1739</v>
@@ -18837,13 +18874,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="B155" t="s">
         <v>27</v>
       </c>
       <c r="C155" t="s">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="D155" t="s">
         <v>330</v>
@@ -18851,13 +18888,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="B156" t="s">
         <v>26</v>
       </c>
       <c r="C156" t="s">
-        <v>2325</v>
+        <v>2328</v>
       </c>
       <c r="D156" t="s">
         <v>330</v>
@@ -18865,13 +18902,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="B157" t="s">
         <v>23</v>
       </c>
       <c r="C157" t="s">
-        <v>2326</v>
+        <v>2329</v>
       </c>
       <c r="D157" t="s">
         <v>330</v>
@@ -18879,13 +18916,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="B158" t="s">
         <v>24</v>
       </c>
       <c r="C158" t="s">
-        <v>2326</v>
+        <v>2329</v>
       </c>
       <c r="D158" t="s">
         <v>330</v>
@@ -18893,13 +18930,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="B159" t="s">
         <v>22</v>
       </c>
       <c r="C159" t="s">
-        <v>2327</v>
+        <v>2330</v>
       </c>
       <c r="D159" t="s">
         <v>330</v>
@@ -18907,13 +18944,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="B160" t="s">
         <v>25</v>
       </c>
       <c r="C160" t="s">
-        <v>2327</v>
+        <v>2330</v>
       </c>
       <c r="D160" t="s">
         <v>330</v>
@@ -18921,13 +18958,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="B161" t="s">
         <v>26</v>
       </c>
       <c r="C161" t="s">
-        <v>2328</v>
+        <v>2331</v>
       </c>
       <c r="D161" t="s">
         <v>1739</v>
@@ -18935,13 +18972,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="B162" t="s">
         <v>23</v>
       </c>
       <c r="C162" t="s">
-        <v>2329</v>
+        <v>2332</v>
       </c>
       <c r="D162" t="s">
         <v>1739</v>
@@ -18949,13 +18986,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="B163" t="s">
         <v>24</v>
       </c>
       <c r="C163" t="s">
-        <v>2329</v>
+        <v>2332</v>
       </c>
       <c r="D163" t="s">
         <v>1739</v>
@@ -18963,13 +19000,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="B164" t="s">
         <v>27</v>
       </c>
       <c r="C164" t="s">
-        <v>2330</v>
+        <v>2333</v>
       </c>
       <c r="D164" t="s">
         <v>330</v>
@@ -18977,13 +19014,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="B165" t="s">
         <v>26</v>
       </c>
       <c r="C165" t="s">
-        <v>2331</v>
+        <v>2334</v>
       </c>
       <c r="D165" t="s">
         <v>330</v>
@@ -18991,13 +19028,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="B166" t="s">
         <v>23</v>
       </c>
       <c r="C166" t="s">
-        <v>2332</v>
+        <v>2335</v>
       </c>
       <c r="D166" t="s">
         <v>330</v>
@@ -19005,13 +19042,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="B167" t="s">
         <v>24</v>
       </c>
       <c r="C167" t="s">
-        <v>2332</v>
+        <v>2335</v>
       </c>
       <c r="D167" t="s">
         <v>330</v>
@@ -19019,13 +19056,13 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="B168" t="s">
         <v>22</v>
       </c>
       <c r="C168" t="s">
-        <v>2333</v>
+        <v>2336</v>
       </c>
       <c r="D168" t="s">
         <v>330</v>
@@ -19033,13 +19070,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="B169" t="s">
         <v>25</v>
       </c>
       <c r="C169" t="s">
-        <v>2333</v>
+        <v>2336</v>
       </c>
       <c r="D169" t="s">
         <v>330</v>
@@ -19047,13 +19084,13 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="B170" t="s">
         <v>1290</v>
       </c>
       <c r="C170" t="s">
-        <v>2333</v>
+        <v>2336</v>
       </c>
       <c r="D170" t="s">
         <v>330</v>
@@ -19061,13 +19098,13 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="B171" t="s">
         <v>26</v>
       </c>
       <c r="C171" t="s">
-        <v>2334</v>
+        <v>2337</v>
       </c>
       <c r="D171" t="s">
         <v>1739</v>
@@ -19075,13 +19112,13 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="B172" t="s">
         <v>23</v>
       </c>
       <c r="C172" t="s">
-        <v>2335</v>
+        <v>2338</v>
       </c>
       <c r="D172" t="s">
         <v>1739</v>
@@ -19089,13 +19126,13 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="B173" t="s">
         <v>24</v>
       </c>
       <c r="C173" t="s">
-        <v>2335</v>
+        <v>2338</v>
       </c>
       <c r="D173" t="s">
         <v>1739</v>
@@ -19103,13 +19140,13 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="B174" t="s">
         <v>1290</v>
       </c>
       <c r="C174" t="s">
-        <v>2336</v>
+        <v>2339</v>
       </c>
       <c r="D174" t="s">
         <v>1739</v>
@@ -19117,13 +19154,13 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="B175" t="s">
         <v>26</v>
       </c>
       <c r="C175" t="s">
-        <v>2337</v>
+        <v>2340</v>
       </c>
       <c r="D175" t="s">
         <v>330</v>
@@ -19131,13 +19168,13 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="B176" t="s">
         <v>23</v>
       </c>
       <c r="C176" t="s">
-        <v>2338</v>
+        <v>2341</v>
       </c>
       <c r="D176" t="s">
         <v>330</v>
@@ -19145,13 +19182,13 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="B177" t="s">
         <v>24</v>
       </c>
       <c r="C177" t="s">
-        <v>2338</v>
+        <v>2341</v>
       </c>
       <c r="D177" t="s">
         <v>330</v>
@@ -19159,13 +19196,13 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="B178" t="s">
         <v>22</v>
       </c>
       <c r="C178" t="s">
-        <v>2339</v>
+        <v>2342</v>
       </c>
       <c r="D178" t="s">
         <v>330</v>
@@ -19173,13 +19210,13 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="B179" t="s">
         <v>25</v>
       </c>
       <c r="C179" t="s">
-        <v>2333</v>
+        <v>2336</v>
       </c>
       <c r="D179" t="s">
         <v>330</v>
@@ -19187,13 +19224,13 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="B180" t="s">
         <v>1290</v>
       </c>
       <c r="C180" t="s">
-        <v>2339</v>
+        <v>2342</v>
       </c>
       <c r="D180" t="s">
         <v>330</v>
@@ -19201,13 +19238,13 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="B181" t="s">
         <v>26</v>
       </c>
       <c r="C181" t="s">
-        <v>2340</v>
+        <v>2343</v>
       </c>
       <c r="D181" t="s">
         <v>1739</v>
@@ -19215,13 +19252,13 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="B182" t="s">
         <v>23</v>
       </c>
       <c r="C182" t="s">
-        <v>2341</v>
+        <v>2344</v>
       </c>
       <c r="D182" t="s">
         <v>1739</v>
@@ -19229,13 +19266,13 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="B183" t="s">
         <v>24</v>
       </c>
       <c r="C183" t="s">
-        <v>2341</v>
+        <v>2344</v>
       </c>
       <c r="D183" t="s">
         <v>1739</v>
@@ -19243,13 +19280,13 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="B184" t="s">
         <v>1290</v>
       </c>
       <c r="C184" t="s">
-        <v>2342</v>
+        <v>2345</v>
       </c>
       <c r="D184" t="s">
         <v>1739</v>
@@ -19257,13 +19294,13 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>2159</v>
+        <v>2162</v>
       </c>
       <c r="B185" t="s">
         <v>22</v>
       </c>
       <c r="C185" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="D185" t="s">
         <v>330</v>
@@ -19271,13 +19308,13 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="B186" t="s">
         <v>22</v>
       </c>
       <c r="C186" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="D186" t="s">
         <v>330</v>
@@ -19285,13 +19322,13 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="B187" t="s">
         <v>27</v>
       </c>
       <c r="C187" t="s">
-        <v>2345</v>
+        <v>2348</v>
       </c>
       <c r="D187" t="s">
         <v>330</v>
@@ -19299,13 +19336,13 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="B188" t="s">
         <v>26</v>
       </c>
       <c r="C188" t="s">
-        <v>2346</v>
+        <v>2349</v>
       </c>
       <c r="D188" t="s">
         <v>330</v>
@@ -19313,13 +19350,13 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="B189" t="s">
         <v>23</v>
       </c>
       <c r="C189" t="s">
-        <v>2347</v>
+        <v>2350</v>
       </c>
       <c r="D189" t="s">
         <v>330</v>
@@ -19327,13 +19364,13 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="B190" t="s">
         <v>24</v>
       </c>
       <c r="C190" t="s">
-        <v>2347</v>
+        <v>2350</v>
       </c>
       <c r="D190" t="s">
         <v>330</v>
@@ -19341,13 +19378,13 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="B191" t="s">
         <v>22</v>
       </c>
       <c r="C191" t="s">
-        <v>2348</v>
+        <v>2351</v>
       </c>
       <c r="D191" t="s">
         <v>330</v>
@@ -19355,13 +19392,13 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>2162</v>
+        <v>2165</v>
       </c>
       <c r="B192" t="s">
         <v>27</v>
       </c>
       <c r="C192" t="s">
-        <v>2274</v>
+        <v>2277</v>
       </c>
       <c r="D192" t="s">
         <v>1739</v>
@@ -19369,13 +19406,13 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>2162</v>
+        <v>2165</v>
       </c>
       <c r="B193" t="s">
         <v>26</v>
       </c>
       <c r="C193" t="s">
-        <v>2349</v>
+        <v>2352</v>
       </c>
       <c r="D193" t="s">
         <v>1739</v>
@@ -19383,13 +19420,13 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>2162</v>
+        <v>2165</v>
       </c>
       <c r="B194" t="s">
         <v>23</v>
       </c>
       <c r="C194" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
       <c r="D194" t="s">
         <v>1739</v>
@@ -19397,13 +19434,13 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>2162</v>
+        <v>2165</v>
       </c>
       <c r="B195" t="s">
         <v>24</v>
       </c>
       <c r="C195" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
       <c r="D195" t="s">
         <v>1739</v>
@@ -19411,13 +19448,13 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>2162</v>
+        <v>2165</v>
       </c>
       <c r="B196" t="s">
         <v>22</v>
       </c>
       <c r="C196" t="s">
-        <v>2351</v>
+        <v>2354</v>
       </c>
       <c r="D196" t="s">
         <v>1739</v>
@@ -19425,13 +19462,13 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>2163</v>
+        <v>2166</v>
       </c>
       <c r="B197" t="s">
         <v>27</v>
       </c>
       <c r="C197" t="s">
-        <v>2352</v>
+        <v>2355</v>
       </c>
       <c r="D197" t="s">
         <v>330</v>
@@ -19439,13 +19476,13 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>2163</v>
+        <v>2166</v>
       </c>
       <c r="B198" t="s">
         <v>22</v>
       </c>
       <c r="C198" t="s">
-        <v>2353</v>
+        <v>2356</v>
       </c>
       <c r="D198" t="s">
         <v>330</v>
@@ -19453,13 +19490,13 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>2164</v>
+        <v>2167</v>
       </c>
       <c r="B199" t="s">
         <v>27</v>
       </c>
       <c r="C199" t="s">
-        <v>2282</v>
+        <v>2285</v>
       </c>
       <c r="D199" t="s">
         <v>1739</v>
@@ -19467,13 +19504,13 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>2164</v>
+        <v>2167</v>
       </c>
       <c r="B200" t="s">
         <v>22</v>
       </c>
       <c r="C200" t="s">
-        <v>2354</v>
+        <v>2357</v>
       </c>
       <c r="D200" t="s">
         <v>1739</v>
@@ -19481,13 +19518,13 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>2165</v>
+        <v>2168</v>
       </c>
       <c r="B201" t="s">
         <v>26</v>
       </c>
       <c r="C201" t="s">
-        <v>2355</v>
+        <v>2358</v>
       </c>
       <c r="D201" t="s">
         <v>330</v>
@@ -19495,13 +19532,13 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>2165</v>
+        <v>2168</v>
       </c>
       <c r="B202" t="s">
         <v>23</v>
       </c>
       <c r="C202" t="s">
-        <v>2356</v>
+        <v>2359</v>
       </c>
       <c r="D202" t="s">
         <v>330</v>
@@ -19509,13 +19546,13 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>2165</v>
+        <v>2168</v>
       </c>
       <c r="B203" t="s">
         <v>24</v>
       </c>
       <c r="C203" t="s">
-        <v>2356</v>
+        <v>2359</v>
       </c>
       <c r="D203" t="s">
         <v>330</v>
@@ -19523,13 +19560,13 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>2165</v>
+        <v>2168</v>
       </c>
       <c r="B204" t="s">
         <v>22</v>
       </c>
       <c r="C204" t="s">
-        <v>2357</v>
+        <v>2360</v>
       </c>
       <c r="D204" t="s">
         <v>330</v>
@@ -19537,13 +19574,13 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>2165</v>
+        <v>2168</v>
       </c>
       <c r="B205" t="s">
         <v>25</v>
       </c>
       <c r="C205" t="s">
-        <v>2358</v>
+        <v>2361</v>
       </c>
       <c r="D205" t="s">
         <v>330</v>
@@ -19551,13 +19588,13 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>2165</v>
+        <v>2168</v>
       </c>
       <c r="B206" t="s">
         <v>1290</v>
       </c>
       <c r="C206" t="s">
-        <v>2359</v>
+        <v>2362</v>
       </c>
       <c r="D206" t="s">
         <v>330</v>
@@ -19565,13 +19602,13 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>2166</v>
+        <v>2169</v>
       </c>
       <c r="B207" t="s">
         <v>26</v>
       </c>
       <c r="C207" t="s">
-        <v>2360</v>
+        <v>2363</v>
       </c>
       <c r="D207" t="s">
         <v>1739</v>
@@ -19579,13 +19616,13 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>2166</v>
+        <v>2169</v>
       </c>
       <c r="B208" t="s">
         <v>23</v>
       </c>
       <c r="C208" t="s">
-        <v>2361</v>
+        <v>2364</v>
       </c>
       <c r="D208" t="s">
         <v>1739</v>
@@ -19593,13 +19630,13 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>2166</v>
+        <v>2169</v>
       </c>
       <c r="B209" t="s">
         <v>24</v>
       </c>
       <c r="C209" t="s">
-        <v>2361</v>
+        <v>2364</v>
       </c>
       <c r="D209" t="s">
         <v>1739</v>
@@ -19607,13 +19644,13 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>2166</v>
+        <v>2169</v>
       </c>
       <c r="B210" t="s">
         <v>22</v>
       </c>
       <c r="C210" t="s">
-        <v>2362</v>
+        <v>2365</v>
       </c>
       <c r="D210" t="s">
         <v>1739</v>
@@ -19621,13 +19658,13 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="B211" t="s">
         <v>26</v>
       </c>
       <c r="C211" t="s">
-        <v>2363</v>
+        <v>2366</v>
       </c>
       <c r="D211" t="s">
         <v>330</v>
@@ -19635,13 +19672,13 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="B212" t="s">
         <v>23</v>
       </c>
       <c r="C212" t="s">
-        <v>2364</v>
+        <v>2367</v>
       </c>
       <c r="D212" t="s">
         <v>330</v>
@@ -19649,13 +19686,13 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="B213" t="s">
         <v>24</v>
       </c>
       <c r="C213" t="s">
-        <v>2364</v>
+        <v>2367</v>
       </c>
       <c r="D213" t="s">
         <v>330</v>
@@ -19663,13 +19700,13 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="B214" t="s">
         <v>22</v>
       </c>
       <c r="C214" t="s">
-        <v>2365</v>
+        <v>2368</v>
       </c>
       <c r="D214" t="s">
         <v>330</v>
@@ -19677,13 +19714,13 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="B215" t="s">
         <v>25</v>
       </c>
       <c r="C215" t="s">
-        <v>2366</v>
+        <v>2369</v>
       </c>
       <c r="D215" t="s">
         <v>330</v>
@@ -19691,13 +19728,13 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>2168</v>
+        <v>2171</v>
       </c>
       <c r="B216" t="s">
         <v>26</v>
       </c>
       <c r="C216" t="s">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="D216" t="s">
         <v>1739</v>
@@ -19705,13 +19742,13 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>2168</v>
+        <v>2171</v>
       </c>
       <c r="B217" t="s">
         <v>23</v>
       </c>
       <c r="C217" t="s">
-        <v>2361</v>
+        <v>2364</v>
       </c>
       <c r="D217" t="s">
         <v>1739</v>
@@ -19719,13 +19756,13 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>2168</v>
+        <v>2171</v>
       </c>
       <c r="B218" t="s">
         <v>24</v>
       </c>
       <c r="C218" t="s">
-        <v>2361</v>
+        <v>2364</v>
       </c>
       <c r="D218" t="s">
         <v>1739</v>
@@ -19733,13 +19770,13 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>2168</v>
+        <v>2171</v>
       </c>
       <c r="B219" t="s">
         <v>22</v>
       </c>
       <c r="C219" t="s">
-        <v>2368</v>
+        <v>2371</v>
       </c>
       <c r="D219" t="s">
         <v>1739</v>
@@ -19747,13 +19784,13 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>2169</v>
+        <v>2172</v>
       </c>
       <c r="B220" t="s">
         <v>23</v>
       </c>
       <c r="C220" t="s">
-        <v>2369</v>
+        <v>2372</v>
       </c>
       <c r="D220" t="s">
         <v>330</v>
@@ -19761,13 +19798,13 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>2169</v>
+        <v>2172</v>
       </c>
       <c r="B221" t="s">
         <v>24</v>
       </c>
       <c r="C221" t="s">
-        <v>2369</v>
+        <v>2372</v>
       </c>
       <c r="D221" t="s">
         <v>330</v>
@@ -19775,13 +19812,13 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="B222" t="s">
         <v>23</v>
       </c>
       <c r="C222" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
       <c r="D222" t="s">
         <v>1739</v>
@@ -19789,13 +19826,13 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="B223" t="s">
         <v>24</v>
       </c>
       <c r="C223" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
       <c r="D223" t="s">
         <v>1739</v>
@@ -19803,13 +19840,13 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>2171</v>
+        <v>2174</v>
       </c>
       <c r="B224" t="s">
         <v>23</v>
       </c>
       <c r="C224" t="s">
-        <v>2370</v>
+        <v>2373</v>
       </c>
       <c r="D224" t="s">
         <v>330</v>
@@ -19817,13 +19854,13 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>2171</v>
+        <v>2174</v>
       </c>
       <c r="B225" t="s">
         <v>24</v>
       </c>
       <c r="C225" t="s">
-        <v>2370</v>
+        <v>2373</v>
       </c>
       <c r="D225" t="s">
         <v>330</v>
@@ -19831,13 +19868,13 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>2171</v>
+        <v>2174</v>
       </c>
       <c r="B226" t="s">
         <v>22</v>
       </c>
       <c r="C226" t="s">
-        <v>2371</v>
+        <v>2374</v>
       </c>
       <c r="D226" t="s">
         <v>330</v>
@@ -19845,13 +19882,13 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>2172</v>
+        <v>2175</v>
       </c>
       <c r="B227" t="s">
         <v>23</v>
       </c>
       <c r="C227" t="s">
-        <v>2361</v>
+        <v>2364</v>
       </c>
       <c r="D227" t="s">
         <v>1739</v>
@@ -19859,13 +19896,13 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>2172</v>
+        <v>2175</v>
       </c>
       <c r="B228" t="s">
         <v>24</v>
       </c>
       <c r="C228" t="s">
-        <v>2361</v>
+        <v>2364</v>
       </c>
       <c r="D228" t="s">
         <v>1739</v>
@@ -19873,13 +19910,13 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>2172</v>
+        <v>2175</v>
       </c>
       <c r="B229" t="s">
         <v>22</v>
       </c>
       <c r="C229" t="s">
-        <v>2372</v>
+        <v>2375</v>
       </c>
       <c r="D229" t="s">
         <v>1739</v>
@@ -19887,13 +19924,13 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>2173</v>
+        <v>2176</v>
       </c>
       <c r="B230" t="s">
         <v>22</v>
       </c>
       <c r="C230" t="s">
-        <v>2373</v>
+        <v>2376</v>
       </c>
       <c r="D230" t="s">
         <v>330</v>
@@ -19901,13 +19938,13 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>2174</v>
+        <v>2177</v>
       </c>
       <c r="B231" t="s">
         <v>22</v>
       </c>
       <c r="C231" t="s">
-        <v>2374</v>
+        <v>2377</v>
       </c>
       <c r="D231" t="s">
         <v>1739</v>
@@ -19915,13 +19952,13 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="B232" t="s">
         <v>26</v>
       </c>
       <c r="C232" t="s">
-        <v>2375</v>
+        <v>2378</v>
       </c>
       <c r="D232" t="s">
         <v>330</v>
@@ -19929,13 +19966,13 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="B233" t="s">
         <v>22</v>
       </c>
       <c r="C233" t="s">
-        <v>2376</v>
+        <v>2379</v>
       </c>
       <c r="D233" t="s">
         <v>330</v>
@@ -19943,13 +19980,13 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>2176</v>
+        <v>2179</v>
       </c>
       <c r="B234" t="s">
         <v>26</v>
       </c>
       <c r="C234" t="s">
-        <v>2377</v>
+        <v>2380</v>
       </c>
       <c r="D234" t="s">
         <v>1739</v>
@@ -19957,13 +19994,13 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>2176</v>
+        <v>2179</v>
       </c>
       <c r="B235" t="s">
         <v>22</v>
       </c>
       <c r="C235" t="s">
-        <v>2378</v>
+        <v>2381</v>
       </c>
       <c r="D235" t="s">
         <v>1739</v>
@@ -19971,13 +20008,13 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>2177</v>
+        <v>2180</v>
       </c>
       <c r="B236" t="s">
         <v>22</v>
       </c>
       <c r="C236" t="s">
-        <v>2379</v>
+        <v>2382</v>
       </c>
       <c r="D236" t="s">
         <v>330</v>
@@ -19985,13 +20022,13 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="B237" t="s">
         <v>22</v>
       </c>
       <c r="C237" t="s">
-        <v>2380</v>
+        <v>2383</v>
       </c>
       <c r="D237" t="s">
         <v>1739</v>
@@ -19999,13 +20036,13 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="B238" t="s">
         <v>26</v>
       </c>
       <c r="C238" t="s">
-        <v>2381</v>
+        <v>2384</v>
       </c>
       <c r="D238" t="s">
         <v>330</v>
@@ -20013,13 +20050,13 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="B239" t="s">
         <v>23</v>
       </c>
       <c r="C239" t="s">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="D239" t="s">
         <v>330</v>
@@ -20027,13 +20064,13 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="B240" t="s">
         <v>24</v>
       </c>
       <c r="C240" t="s">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="D240" t="s">
         <v>330</v>
@@ -20041,13 +20078,13 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="B241" t="s">
         <v>22</v>
       </c>
       <c r="C241" t="s">
-        <v>2383</v>
+        <v>2386</v>
       </c>
       <c r="D241" t="s">
         <v>330</v>
@@ -20055,13 +20092,13 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="B242" t="s">
         <v>1290</v>
       </c>
       <c r="C242" t="s">
-        <v>2384</v>
+        <v>2387</v>
       </c>
       <c r="D242" t="s">
         <v>330</v>
@@ -20069,13 +20106,13 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="B243" t="s">
         <v>26</v>
       </c>
       <c r="C243" t="s">
-        <v>2385</v>
+        <v>2388</v>
       </c>
       <c r="D243" t="s">
         <v>1739</v>
@@ -20083,13 +20120,13 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="B244" t="s">
         <v>23</v>
       </c>
       <c r="C244" t="s">
-        <v>2386</v>
+        <v>2389</v>
       </c>
       <c r="D244" t="s">
         <v>1739</v>
@@ -20097,13 +20134,13 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="B245" t="s">
         <v>24</v>
       </c>
       <c r="C245" t="s">
-        <v>2386</v>
+        <v>2389</v>
       </c>
       <c r="D245" t="s">
         <v>1739</v>
@@ -20111,13 +20148,13 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="B246" t="s">
         <v>22</v>
       </c>
       <c r="C246" t="s">
-        <v>2387</v>
+        <v>2390</v>
       </c>
       <c r="D246" t="s">
         <v>1739</v>
@@ -20125,13 +20162,13 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>2181</v>
+        <v>2184</v>
       </c>
       <c r="B247" t="s">
         <v>22</v>
       </c>
       <c r="C247" t="s">
-        <v>2388</v>
+        <v>2391</v>
       </c>
       <c r="D247" t="s">
         <v>330</v>
@@ -20139,13 +20176,13 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>2182</v>
+        <v>2185</v>
       </c>
       <c r="B248" t="s">
         <v>22</v>
       </c>
       <c r="C248" t="s">
-        <v>2389</v>
+        <v>2392</v>
       </c>
       <c r="D248" t="s">
         <v>1739</v>
@@ -20153,13 +20190,13 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>2183</v>
+        <v>2186</v>
       </c>
       <c r="B249" t="s">
         <v>22</v>
       </c>
       <c r="C249" t="s">
-        <v>2390</v>
+        <v>2393</v>
       </c>
       <c r="D249" t="s">
         <v>330</v>
@@ -20167,13 +20204,13 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>2183</v>
+        <v>2186</v>
       </c>
       <c r="B250" t="s">
         <v>25</v>
       </c>
       <c r="C250" t="s">
-        <v>2391</v>
+        <v>2394</v>
       </c>
       <c r="D250" t="s">
         <v>330</v>
@@ -20181,13 +20218,13 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>2184</v>
+        <v>2187</v>
       </c>
       <c r="B251" t="s">
         <v>22</v>
       </c>
       <c r="C251" t="s">
-        <v>2392</v>
+        <v>2395</v>
       </c>
       <c r="D251" t="s">
         <v>1739</v>
@@ -20195,13 +20232,13 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>2185</v>
+        <v>2188</v>
       </c>
       <c r="B252" t="s">
         <v>22</v>
       </c>
       <c r="C252" t="s">
-        <v>2393</v>
+        <v>2396</v>
       </c>
       <c r="D252" t="s">
         <v>330</v>
@@ -20209,13 +20246,13 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>2186</v>
+        <v>2189</v>
       </c>
       <c r="B253" t="s">
         <v>22</v>
       </c>
       <c r="C253" t="s">
-        <v>2394</v>
+        <v>2397</v>
       </c>
       <c r="D253" t="s">
         <v>1739</v>
@@ -20223,13 +20260,13 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>2187</v>
+        <v>2190</v>
       </c>
       <c r="B254" t="s">
         <v>22</v>
       </c>
       <c r="C254" t="s">
-        <v>2395</v>
+        <v>2398</v>
       </c>
       <c r="D254" t="s">
         <v>330</v>
@@ -20237,13 +20274,13 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>2187</v>
+        <v>2190</v>
       </c>
       <c r="B255" t="s">
         <v>25</v>
       </c>
       <c r="C255" t="s">
-        <v>2396</v>
+        <v>2399</v>
       </c>
       <c r="D255" t="s">
         <v>330</v>
@@ -20251,13 +20288,13 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="B256" t="s">
         <v>22</v>
       </c>
       <c r="C256" t="s">
-        <v>2397</v>
+        <v>2400</v>
       </c>
       <c r="D256" t="s">
         <v>1739</v>
@@ -20265,13 +20302,13 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>2189</v>
+        <v>2192</v>
       </c>
       <c r="B257" t="s">
         <v>22</v>
       </c>
       <c r="C257" t="s">
-        <v>2398</v>
+        <v>2401</v>
       </c>
       <c r="D257" t="s">
         <v>330</v>
@@ -20279,13 +20316,13 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>2190</v>
+        <v>2193</v>
       </c>
       <c r="B258" t="s">
         <v>22</v>
       </c>
       <c r="C258" t="s">
-        <v>2399</v>
+        <v>2402</v>
       </c>
       <c r="D258" t="s">
         <v>1739</v>
@@ -20293,13 +20330,13 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>2191</v>
+        <v>2194</v>
       </c>
       <c r="B259" t="s">
         <v>27</v>
       </c>
       <c r="C259" t="s">
-        <v>2400</v>
+        <v>2403</v>
       </c>
       <c r="D259" t="s">
         <v>330</v>
@@ -20307,13 +20344,13 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>2192</v>
+        <v>2195</v>
       </c>
       <c r="B260" t="s">
         <v>27</v>
       </c>
       <c r="C260" t="s">
-        <v>2401</v>
+        <v>2404</v>
       </c>
       <c r="D260" t="s">
         <v>330</v>
@@ -20321,13 +20358,13 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="B261" t="s">
         <v>27</v>
       </c>
       <c r="C261" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="D261" t="s">
         <v>1739</v>
@@ -20335,13 +20372,13 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>2194</v>
+        <v>2197</v>
       </c>
       <c r="B262" t="s">
         <v>27</v>
       </c>
       <c r="C262" t="s">
-        <v>2402</v>
+        <v>2405</v>
       </c>
       <c r="D262" t="s">
         <v>330</v>
@@ -20349,13 +20386,13 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>2195</v>
+        <v>2198</v>
       </c>
       <c r="B263" t="s">
         <v>27</v>
       </c>
       <c r="C263" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="D263" t="s">
         <v>1739</v>
@@ -20363,13 +20400,13 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>2196</v>
+        <v>2199</v>
       </c>
       <c r="B264" t="s">
         <v>27</v>
       </c>
       <c r="C264" t="s">
-        <v>2403</v>
+        <v>2406</v>
       </c>
       <c r="D264" t="s">
         <v>330</v>
@@ -20377,13 +20414,13 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="B265" t="s">
         <v>27</v>
       </c>
       <c r="C265" t="s">
-        <v>2274</v>
+        <v>2277</v>
       </c>
       <c r="D265" t="s">
         <v>1739</v>
@@ -20391,13 +20428,13 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>2198</v>
+        <v>2201</v>
       </c>
       <c r="B266" t="s">
         <v>27</v>
       </c>
       <c r="C266" t="s">
-        <v>2404</v>
+        <v>2407</v>
       </c>
       <c r="D266" t="s">
         <v>330</v>
@@ -20405,13 +20442,13 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="B267" t="s">
         <v>27</v>
       </c>
       <c r="C267" t="s">
-        <v>2282</v>
+        <v>2285</v>
       </c>
       <c r="D267" t="s">
         <v>1739</v>
@@ -20419,13 +20456,13 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>2200</v>
+        <v>2203</v>
       </c>
       <c r="B268" t="s">
         <v>27</v>
       </c>
       <c r="C268" t="s">
-        <v>2405</v>
+        <v>2408</v>
       </c>
       <c r="D268" t="s">
         <v>330</v>
@@ -20433,13 +20470,13 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>2201</v>
+        <v>2204</v>
       </c>
       <c r="B269" t="s">
         <v>27</v>
       </c>
       <c r="C269" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="D269" t="s">
         <v>1739</v>
@@ -20447,13 +20484,13 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="B270" t="s">
         <v>27</v>
       </c>
       <c r="C270" t="s">
-        <v>2406</v>
+        <v>2409</v>
       </c>
       <c r="D270" t="s">
         <v>330</v>
@@ -20461,13 +20498,13 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>2203</v>
+        <v>2206</v>
       </c>
       <c r="B271" t="s">
         <v>27</v>
       </c>
       <c r="C271" t="s">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="D271" t="s">
         <v>1739</v>
@@ -20475,13 +20512,13 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>2204</v>
+        <v>2207</v>
       </c>
       <c r="B272" t="s">
         <v>27</v>
       </c>
       <c r="C272" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
       <c r="D272" t="s">
         <v>330</v>
@@ -20489,13 +20526,13 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="B273" t="s">
         <v>27</v>
       </c>
       <c r="C273" t="s">
-        <v>2408</v>
+        <v>2411</v>
       </c>
       <c r="D273" t="s">
         <v>330</v>
@@ -20503,13 +20540,13 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="B274" t="s">
         <v>27</v>
       </c>
       <c r="C274" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="D274" t="s">
         <v>1739</v>
@@ -20517,13 +20554,13 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="B275" t="s">
         <v>27</v>
       </c>
       <c r="C275" t="s">
-        <v>2409</v>
+        <v>2412</v>
       </c>
       <c r="D275" t="s">
         <v>330</v>
@@ -20531,13 +20568,13 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="B276" t="s">
         <v>27</v>
       </c>
       <c r="C276" t="s">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="D276" t="s">
         <v>1739</v>
@@ -20545,13 +20582,13 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="B277" t="s">
         <v>27</v>
       </c>
       <c r="C277" t="s">
-        <v>2410</v>
+        <v>2413</v>
       </c>
       <c r="D277" t="s">
         <v>330</v>
@@ -20559,13 +20596,13 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>2210</v>
+        <v>2213</v>
       </c>
       <c r="B278" t="s">
         <v>27</v>
       </c>
       <c r="C278" t="s">
-        <v>2274</v>
+        <v>2277</v>
       </c>
       <c r="D278" t="s">
         <v>1739</v>
@@ -20573,13 +20610,13 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>2211</v>
+        <v>2214</v>
       </c>
       <c r="B279" t="s">
         <v>27</v>
       </c>
       <c r="C279" t="s">
-        <v>2411</v>
+        <v>2414</v>
       </c>
       <c r="D279" t="s">
         <v>330</v>
@@ -20587,13 +20624,13 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="B280" t="s">
         <v>27</v>
       </c>
       <c r="C280" t="s">
-        <v>2282</v>
+        <v>2285</v>
       </c>
       <c r="D280" t="s">
         <v>1739</v>
@@ -20601,13 +20638,13 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>2213</v>
+        <v>2216</v>
       </c>
       <c r="B281" t="s">
         <v>27</v>
       </c>
       <c r="C281" t="s">
-        <v>2412</v>
+        <v>2415</v>
       </c>
       <c r="D281" t="s">
         <v>330</v>
@@ -20615,13 +20652,13 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>2214</v>
+        <v>2217</v>
       </c>
       <c r="B282" t="s">
         <v>27</v>
       </c>
       <c r="C282" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="D282" t="s">
         <v>1739</v>
@@ -20629,13 +20666,13 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="B283" t="s">
         <v>27</v>
       </c>
       <c r="C283" t="s">
-        <v>2413</v>
+        <v>2416</v>
       </c>
       <c r="D283" t="s">
         <v>330</v>
@@ -20643,13 +20680,13 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>2216</v>
+        <v>2219</v>
       </c>
       <c r="B284" t="s">
         <v>27</v>
       </c>
       <c r="C284" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="D284" t="s">
         <v>1739</v>
@@ -20684,13 +20721,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2414</v>
+        <v>2417</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>2426</v>
+        <v>2429</v>
       </c>
       <c r="D2" t="s">
         <v>330</v>
@@ -20698,13 +20735,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2414</v>
+        <v>2417</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>2426</v>
+        <v>2429</v>
       </c>
       <c r="D3" t="s">
         <v>330</v>
@@ -20712,13 +20749,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="D4" t="s">
         <v>331</v>
@@ -20726,13 +20763,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="D5" t="s">
         <v>331</v>
@@ -20740,13 +20777,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>2416</v>
+        <v>2419</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>2428</v>
+        <v>2431</v>
       </c>
       <c r="D6" t="s">
         <v>330</v>
@@ -20754,13 +20791,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>2416</v>
+        <v>2419</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>2428</v>
+        <v>2431</v>
       </c>
       <c r="D7" t="s">
         <v>330</v>
@@ -20768,7 +20805,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>2417</v>
+        <v>2420</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -20782,7 +20819,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>2417</v>
+        <v>2420</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -20796,13 +20833,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>2418</v>
+        <v>2421</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>2429</v>
+        <v>2432</v>
       </c>
       <c r="D10" t="s">
         <v>330</v>
@@ -20810,13 +20847,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>2418</v>
+        <v>2421</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>2429</v>
+        <v>2432</v>
       </c>
       <c r="D11" t="s">
         <v>330</v>
@@ -20824,13 +20861,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>2430</v>
+        <v>2433</v>
       </c>
       <c r="D12" t="s">
         <v>331</v>
@@ -20838,13 +20875,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>2430</v>
+        <v>2433</v>
       </c>
       <c r="D13" t="s">
         <v>331</v>
@@ -20852,13 +20889,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>2420</v>
+        <v>2423</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>2431</v>
+        <v>2434</v>
       </c>
       <c r="D14" t="s">
         <v>330</v>
@@ -20866,13 +20903,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>2420</v>
+        <v>2423</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>2431</v>
+        <v>2434</v>
       </c>
       <c r="D15" t="s">
         <v>330</v>
@@ -20880,7 +20917,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -20894,7 +20931,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -20908,13 +20945,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>2422</v>
+        <v>2425</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>2432</v>
+        <v>2435</v>
       </c>
       <c r="D18" t="s">
         <v>330</v>
@@ -20922,13 +20959,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>2422</v>
+        <v>2425</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>2432</v>
+        <v>2435</v>
       </c>
       <c r="D19" t="s">
         <v>330</v>
@@ -20936,13 +20973,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>2423</v>
+        <v>2426</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>2433</v>
+        <v>2436</v>
       </c>
       <c r="D20" t="s">
         <v>331</v>
@@ -20950,13 +20987,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>2423</v>
+        <v>2426</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>2433</v>
+        <v>2436</v>
       </c>
       <c r="D21" t="s">
         <v>331</v>
@@ -20964,13 +21001,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>2424</v>
+        <v>2427</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>2434</v>
+        <v>2437</v>
       </c>
       <c r="D22" t="s">
         <v>330</v>
@@ -20978,13 +21015,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>2424</v>
+        <v>2427</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>2434</v>
+        <v>2437</v>
       </c>
       <c r="D23" t="s">
         <v>330</v>
@@ -20992,7 +21029,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>2425</v>
+        <v>2428</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -21006,7 +21043,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>2425</v>
+        <v>2428</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
